--- a/Gantt-Chart.xlsx
+++ b/Gantt-Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chesc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CA862C-0CB8-4591-A8FA-2FCFC7860AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF29437B-6551-4222-8DE2-B67B8401059A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C8612AF-AC9F-47E5-97F5-BEE5B3F3935B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>System Name</t>
   </si>
@@ -120,13 +120,7 @@
     <t>Sumucad</t>
   </si>
   <si>
-    <t>09/14/24</t>
-  </si>
-  <si>
     <t>In Progress</t>
-  </si>
-  <si>
-    <t>09/25/24</t>
   </si>
   <si>
     <t>2.2. Security</t>
@@ -175,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +212,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,11 +267,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEE28BF-3653-487B-ABAE-D8576A0DB2DF}">
   <dimension ref="A2:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,6 +632,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -652,24 +654,24 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14" t="s">
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -750,19 +752,15 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="8">
         <v>45421</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="5"/>
@@ -782,14 +780,12 @@
         <v>25</v>
       </c>
       <c r="C16" s="8">
-        <v>45421</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>45577</v>
+      </c>
+      <c r="D16" s="8"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="5"/>
@@ -812,9 +808,7 @@
         <v>45605</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="11"/>
       <c r="H17" s="12"/>
@@ -838,8 +832,8 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -858,17 +852,13 @@
       <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="8">
-        <v>45605</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="5"/>
@@ -887,13 +877,9 @@
       <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="8">
-        <v>45421</v>
-      </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -953,7 +939,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>27</v>
@@ -976,7 +962,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>26</v>
@@ -999,7 +985,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>25</v>
@@ -1022,7 +1008,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>27</v>
@@ -1045,7 +1031,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>25</v>
@@ -1068,17 +1054,17 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -1120,15 +1106,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C408F2DC1A5654CA8CA0D5E5374792D" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="824c5947345278e12b62b2dd58d10aa5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac66f5c3-5041-4611-bda9-96c31c8e3f25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0266f91b9b2a7c1400558ed82e1fc5d5" ns2:_="">
     <xsd:import namespace="ac66f5c3-5041-4611-bda9-96c31c8e3f25"/>
@@ -1272,15 +1249,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35881B4A-3FCC-4E5E-8091-2A025B41756F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68F406B1-DE3B-44C9-A7B7-50FA989AE86F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1296,4 +1274,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35881B4A-3FCC-4E5E-8091-2A025B41756F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>